--- a/VersionRecords/Version 5.0.3.4 20161017/版本Bug和特性计划及评审表v5.0.3.4_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3.4 20161017/版本Bug和特性计划及评审表v5.0.3.4_发现组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1146,7 +1146,9 @@
       <c r="O2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="30"/>
+      <c r="P2" s="30">
+        <v>4130</v>
+      </c>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
       <c r="S2" s="29"/>

--- a/VersionRecords/Version 5.0.3.4 20161017/版本Bug和特性计划及评审表v5.0.3.4_发现组.xlsx
+++ b/VersionRecords/Version 5.0.3.4 20161017/版本Bug和特性计划及评审表v5.0.3.4_发现组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
@@ -197,8 +197,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1011,14 +1011,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="29" style="13" customWidth="1"/>
@@ -1043,7 +1043,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="37"/>
     </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1198,13 +1198,15 @@
       <c r="O3" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="27"/>
+      <c r="P3" s="27">
+        <v>4135</v>
+      </c>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
       <c r="S3" s="38"/>
       <c r="T3" s="39"/>
     </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
       <c r="C4" s="18"/>
@@ -1226,7 +1228,7 @@
       <c r="S4" s="38"/>
       <c r="T4" s="39"/>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -1248,7 +1250,7 @@
       <c r="S5" s="38"/>
       <c r="T5" s="39"/>
     </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="10" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="18"/>
@@ -1270,7 +1272,7 @@
       <c r="S6" s="38"/>
       <c r="T6" s="39"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="C7" s="18"/>
@@ -1292,7 +1294,7 @@
       <c r="S7" s="40"/>
       <c r="T7" s="41"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
@@ -1314,7 +1316,7 @@
       <c r="S8" s="40"/>
       <c r="T8" s="41"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
@@ -1336,7 +1338,7 @@
       <c r="S9" s="40"/>
       <c r="T9" s="41"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -1358,7 +1360,7 @@
       <c r="S10" s="40"/>
       <c r="T10" s="41"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A11" s="16"/>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
@@ -1380,7 +1382,7 @@
       <c r="S11" s="40"/>
       <c r="T11" s="41"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="18.75" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="22"/>
       <c r="C12" s="18"/>
@@ -1402,7 +1404,7 @@
       <c r="S12" s="40"/>
       <c r="T12" s="41"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A13" s="16"/>
       <c r="B13" s="22"/>
       <c r="C13" s="18"/>
@@ -1424,7 +1426,7 @@
       <c r="S13" s="40"/>
       <c r="T13" s="41"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A14" s="16"/>
       <c r="B14" s="22"/>
       <c r="C14" s="18"/>
@@ -1446,7 +1448,7 @@
       <c r="S14" s="40"/>
       <c r="T14" s="41"/>
     </row>
-    <row r="15" spans="1:20" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="10" customFormat="1" ht="19.5">
       <c r="A15" s="16"/>
       <c r="B15" s="23"/>
       <c r="C15" s="18"/>
@@ -1468,7 +1470,7 @@
       <c r="S15" s="38"/>
       <c r="T15" s="39"/>
     </row>
-    <row r="16" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A16" s="16"/>
       <c r="B16" s="22"/>
       <c r="C16" s="18"/>
@@ -1490,7 +1492,7 @@
       <c r="S16" s="38"/>
       <c r="T16" s="39"/>
     </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A17" s="16"/>
       <c r="B17" s="22"/>
       <c r="C17" s="18"/>
@@ -1512,7 +1514,7 @@
       <c r="S17" s="38"/>
       <c r="T17" s="39"/>
     </row>
-    <row r="18" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A18" s="16"/>
       <c r="B18" s="22"/>
       <c r="C18" s="18"/>
@@ -1534,7 +1536,7 @@
       <c r="S18" s="38"/>
       <c r="T18" s="39"/>
     </row>
-    <row r="19" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A19" s="16"/>
       <c r="B19" s="22"/>
       <c r="C19" s="18"/>
@@ -1556,7 +1558,7 @@
       <c r="S19" s="38"/>
       <c r="T19" s="39"/>
     </row>
-    <row r="20" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A20" s="16"/>
       <c r="B20" s="22"/>
       <c r="C20" s="18"/>
@@ -1578,7 +1580,7 @@
       <c r="S20" s="38"/>
       <c r="T20" s="39"/>
     </row>
-    <row r="21" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A21" s="16"/>
       <c r="B21" s="22"/>
       <c r="C21" s="18"/>
@@ -1600,7 +1602,7 @@
       <c r="S21" s="38"/>
       <c r="T21" s="39"/>
     </row>
-    <row r="22" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A22" s="16"/>
       <c r="B22" s="24"/>
       <c r="C22" s="18"/>
@@ -1622,7 +1624,7 @@
       <c r="S22" s="38"/>
       <c r="T22" s="39"/>
     </row>
-    <row r="23" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A23" s="16"/>
       <c r="B23" s="24"/>
       <c r="C23" s="18"/>
@@ -1644,7 +1646,7 @@
       <c r="S23" s="38"/>
       <c r="T23" s="39"/>
     </row>
-    <row r="24" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A24" s="16"/>
       <c r="B24" s="24"/>
       <c r="C24" s="18"/>
@@ -1666,7 +1668,7 @@
       <c r="S24" s="38"/>
       <c r="T24" s="39"/>
     </row>
-    <row r="25" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A25" s="16"/>
       <c r="B25" s="24"/>
       <c r="C25" s="18"/>
@@ -1688,7 +1690,7 @@
       <c r="S25" s="38"/>
       <c r="T25" s="39"/>
     </row>
-    <row r="26" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A26" s="16"/>
       <c r="B26" s="24"/>
       <c r="C26" s="18"/>
@@ -1710,7 +1712,7 @@
       <c r="S26" s="38"/>
       <c r="T26" s="39"/>
     </row>
-    <row r="27" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A27" s="16"/>
       <c r="B27" s="24"/>
       <c r="C27" s="18"/>
@@ -1732,7 +1734,7 @@
       <c r="S27" s="38"/>
       <c r="T27" s="39"/>
     </row>
-    <row r="28" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A28" s="16"/>
       <c r="B28" s="24"/>
       <c r="C28" s="18"/>
@@ -1754,7 +1756,7 @@
       <c r="S28" s="38"/>
       <c r="T28" s="39"/>
     </row>
-    <row r="29" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -1776,7 +1778,7 @@
       <c r="S29" s="38"/>
       <c r="T29" s="39"/>
     </row>
-    <row r="30" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A30" s="16"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -1798,7 +1800,7 @@
       <c r="S30" s="38"/>
       <c r="T30" s="39"/>
     </row>
-    <row r="31" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A31" s="16"/>
       <c r="B31" s="24"/>
       <c r="C31" s="27"/>
@@ -1820,7 +1822,7 @@
       <c r="S31" s="38"/>
       <c r="T31" s="39"/>
     </row>
-    <row r="32" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A32" s="16"/>
       <c r="B32" s="24"/>
       <c r="C32" s="27"/>
@@ -1842,7 +1844,7 @@
       <c r="S32" s="38"/>
       <c r="T32" s="39"/>
     </row>
-    <row r="33" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A33" s="16"/>
       <c r="B33" s="24"/>
       <c r="C33" s="27"/>
@@ -1864,7 +1866,7 @@
       <c r="S33" s="38"/>
       <c r="T33" s="39"/>
     </row>
-    <row r="34" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A34" s="16"/>
       <c r="B34" s="24"/>
       <c r="C34" s="27"/>
@@ -1886,7 +1888,7 @@
       <c r="S34" s="38"/>
       <c r="T34" s="39"/>
     </row>
-    <row r="35" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A35" s="25"/>
       <c r="B35" s="24"/>
       <c r="C35" s="27"/>
@@ -1908,7 +1910,7 @@
       <c r="S35" s="36"/>
       <c r="T35" s="39"/>
     </row>
-    <row r="36" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A36" s="25"/>
       <c r="B36" s="24"/>
       <c r="C36" s="27"/>
@@ -1930,7 +1932,7 @@
       <c r="S36" s="36"/>
       <c r="T36" s="39"/>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" ht="16.5">
       <c r="A37" s="27"/>
       <c r="B37" s="24"/>
       <c r="C37" s="27"/>
@@ -1951,7 +1953,7 @@
       <c r="R37" s="27"/>
       <c r="S37" s="24"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="27"/>
       <c r="B38" s="24"/>
       <c r="C38" s="27"/>
@@ -1972,7 +1974,7 @@
       <c r="R38" s="27"/>
       <c r="S38" s="24"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="27"/>
       <c r="B39" s="24"/>
       <c r="C39" s="27"/>
@@ -1993,7 +1995,7 @@
       <c r="R39" s="27"/>
       <c r="S39" s="24"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="27"/>
       <c r="B40" s="24"/>
       <c r="C40" s="27"/>
@@ -2014,7 +2016,7 @@
       <c r="R40" s="27"/>
       <c r="S40" s="24"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="27"/>
       <c r="B41" s="24"/>
       <c r="C41" s="27"/>
@@ -2035,7 +2037,7 @@
       <c r="R41" s="27"/>
       <c r="S41" s="24"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="27"/>
       <c r="B42" s="24"/>
       <c r="C42" s="27"/>
@@ -2056,7 +2058,7 @@
       <c r="R42" s="27"/>
       <c r="S42" s="24"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="27"/>
       <c r="B43" s="24"/>
       <c r="C43" s="27"/>
@@ -2077,7 +2079,7 @@
       <c r="R43" s="27"/>
       <c r="S43" s="24"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="27"/>
       <c r="B44" s="24"/>
       <c r="C44" s="27"/>
@@ -2098,7 +2100,7 @@
       <c r="R44" s="27"/>
       <c r="S44" s="24"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="27"/>
       <c r="B45" s="24"/>
       <c r="C45" s="27"/>
@@ -2119,7 +2121,7 @@
       <c r="R45" s="27"/>
       <c r="S45" s="24"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="27"/>
       <c r="B46" s="24"/>
       <c r="C46" s="27"/>
@@ -2140,7 +2142,7 @@
       <c r="R46" s="27"/>
       <c r="S46" s="24"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="27"/>
       <c r="B47" s="24"/>
       <c r="C47" s="27"/>
@@ -2161,7 +2163,7 @@
       <c r="R47" s="27"/>
       <c r="S47" s="24"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="27"/>
       <c r="B48" s="24"/>
       <c r="C48" s="27"/>
@@ -2182,7 +2184,7 @@
       <c r="R48" s="27"/>
       <c r="S48" s="24"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="27"/>
       <c r="B49" s="24"/>
       <c r="C49" s="27"/>
@@ -2203,7 +2205,7 @@
       <c r="R49" s="27"/>
       <c r="S49" s="24"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="27"/>
       <c r="B50" s="24"/>
       <c r="C50" s="27"/>
@@ -2224,7 +2226,7 @@
       <c r="R50" s="27"/>
       <c r="S50" s="24"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="27"/>
       <c r="B51" s="24"/>
       <c r="C51" s="27"/>
@@ -2245,7 +2247,7 @@
       <c r="R51" s="27"/>
       <c r="S51" s="24"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="27"/>
       <c r="B52" s="24"/>
       <c r="C52" s="27"/>
@@ -2266,7 +2268,7 @@
       <c r="R52" s="27"/>
       <c r="S52" s="24"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="27"/>
       <c r="B53" s="24"/>
       <c r="C53" s="27"/>
@@ -2287,7 +2289,7 @@
       <c r="R53" s="27"/>
       <c r="S53" s="24"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="27"/>
       <c r="B54" s="24"/>
       <c r="C54" s="27"/>
@@ -2308,7 +2310,7 @@
       <c r="R54" s="27"/>
       <c r="S54" s="24"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="27"/>
       <c r="B55" s="24"/>
       <c r="C55" s="27"/>
@@ -2329,7 +2331,7 @@
       <c r="R55" s="27"/>
       <c r="S55" s="24"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="27"/>
       <c r="B56" s="24"/>
       <c r="C56" s="27"/>
@@ -2350,7 +2352,7 @@
       <c r="R56" s="27"/>
       <c r="S56" s="24"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="27"/>
       <c r="B57" s="24"/>
       <c r="C57" s="27"/>
@@ -2371,7 +2373,7 @@
       <c r="R57" s="27"/>
       <c r="S57" s="24"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="27"/>
       <c r="B58" s="24"/>
       <c r="C58" s="27"/>
@@ -2392,7 +2394,7 @@
       <c r="R58" s="27"/>
       <c r="S58" s="24"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="27"/>
       <c r="B59" s="24"/>
       <c r="C59" s="27"/>
@@ -2413,7 +2415,7 @@
       <c r="R59" s="27"/>
       <c r="S59" s="24"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="27"/>
       <c r="B60" s="24"/>
       <c r="C60" s="27"/>
@@ -2434,7 +2436,7 @@
       <c r="R60" s="27"/>
       <c r="S60" s="24"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="27"/>
       <c r="B61" s="24"/>
       <c r="C61" s="27"/>
@@ -2455,7 +2457,7 @@
       <c r="R61" s="27"/>
       <c r="S61" s="24"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="27"/>
       <c r="B62" s="24"/>
       <c r="C62" s="27"/>
@@ -2476,7 +2478,7 @@
       <c r="R62" s="27"/>
       <c r="S62" s="24"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="27"/>
       <c r="B63" s="24"/>
       <c r="C63" s="27"/>
@@ -2497,7 +2499,7 @@
       <c r="R63" s="27"/>
       <c r="S63" s="24"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="27"/>
       <c r="B64" s="24"/>
       <c r="C64" s="27"/>
@@ -2518,7 +2520,7 @@
       <c r="R64" s="27"/>
       <c r="S64" s="24"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="27"/>
       <c r="B65" s="24"/>
       <c r="C65" s="27"/>
@@ -2539,7 +2541,7 @@
       <c r="R65" s="27"/>
       <c r="S65" s="24"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="27"/>
       <c r="B66" s="24"/>
       <c r="C66" s="27"/>
@@ -2560,7 +2562,7 @@
       <c r="R66" s="27"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="27"/>
       <c r="B67" s="24"/>
       <c r="C67" s="27"/>
@@ -2581,7 +2583,7 @@
       <c r="R67" s="27"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="27"/>
       <c r="B68" s="24"/>
       <c r="C68" s="27"/>
@@ -2602,7 +2604,7 @@
       <c r="R68" s="27"/>
       <c r="S68" s="24"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="27"/>
       <c r="B69" s="24"/>
       <c r="C69" s="27"/>
@@ -2623,7 +2625,7 @@
       <c r="R69" s="27"/>
       <c r="S69" s="24"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="27"/>
       <c r="B70" s="24"/>
       <c r="C70" s="27"/>
@@ -2644,7 +2646,7 @@
       <c r="R70" s="27"/>
       <c r="S70" s="24"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="27"/>
       <c r="B71" s="24"/>
       <c r="C71" s="27"/>
@@ -2665,7 +2667,7 @@
       <c r="R71" s="27"/>
       <c r="S71" s="24"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="27"/>
       <c r="B72" s="24"/>
       <c r="C72" s="27"/>
@@ -2686,7 +2688,7 @@
       <c r="R72" s="27"/>
       <c r="S72" s="24"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="27"/>
       <c r="B73" s="24"/>
       <c r="C73" s="27"/>
@@ -2707,7 +2709,7 @@
       <c r="R73" s="27"/>
       <c r="S73" s="24"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="27"/>
       <c r="B74" s="24"/>
       <c r="C74" s="27"/>
@@ -2728,7 +2730,7 @@
       <c r="R74" s="27"/>
       <c r="S74" s="24"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="27"/>
       <c r="B75" s="24"/>
       <c r="C75" s="27"/>
@@ -2749,7 +2751,7 @@
       <c r="R75" s="27"/>
       <c r="S75" s="24"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="27"/>
       <c r="B76" s="24"/>
       <c r="C76" s="27"/>
@@ -2770,7 +2772,7 @@
       <c r="R76" s="27"/>
       <c r="S76" s="24"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="27"/>
       <c r="B77" s="24"/>
       <c r="C77" s="27"/>
@@ -2791,7 +2793,7 @@
       <c r="R77" s="27"/>
       <c r="S77" s="24"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="27"/>
       <c r="B78" s="24"/>
       <c r="C78" s="27"/>
@@ -2812,7 +2814,7 @@
       <c r="R78" s="27"/>
       <c r="S78" s="24"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="27"/>
       <c r="B79" s="24"/>
       <c r="C79" s="27"/>
@@ -2833,7 +2835,7 @@
       <c r="R79" s="27"/>
       <c r="S79" s="24"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="27"/>
       <c r="B80" s="24"/>
       <c r="C80" s="27"/>
@@ -2854,7 +2856,7 @@
       <c r="R80" s="27"/>
       <c r="S80" s="24"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="27"/>
       <c r="B81" s="24"/>
       <c r="C81" s="27"/>
@@ -2875,7 +2877,7 @@
       <c r="R81" s="27"/>
       <c r="S81" s="24"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="27"/>
       <c r="B82" s="24"/>
       <c r="C82" s="27"/>
@@ -2896,7 +2898,7 @@
       <c r="R82" s="27"/>
       <c r="S82" s="24"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="27"/>
       <c r="B83" s="24"/>
       <c r="C83" s="27"/>
@@ -2917,7 +2919,7 @@
       <c r="R83" s="27"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="27"/>
       <c r="B84" s="24"/>
       <c r="C84" s="27"/>
@@ -2938,7 +2940,7 @@
       <c r="R84" s="27"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="27"/>
       <c r="B85" s="24"/>
       <c r="C85" s="27"/>
@@ -2959,7 +2961,7 @@
       <c r="R85" s="27"/>
       <c r="S85" s="24"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="27"/>
       <c r="B86" s="24"/>
       <c r="C86" s="27"/>
@@ -2980,7 +2982,7 @@
       <c r="R86" s="27"/>
       <c r="S86" s="24"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="27"/>
       <c r="B87" s="24"/>
       <c r="C87" s="27"/>
@@ -3001,7 +3003,7 @@
       <c r="R87" s="27"/>
       <c r="S87" s="24"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="27"/>
       <c r="B88" s="24"/>
       <c r="C88" s="27"/>
@@ -3022,7 +3024,7 @@
       <c r="R88" s="27"/>
       <c r="S88" s="24"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="27"/>
       <c r="B89" s="24"/>
       <c r="C89" s="27"/>
@@ -3043,7 +3045,7 @@
       <c r="R89" s="27"/>
       <c r="S89" s="24"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="27"/>
       <c r="B90" s="24"/>
       <c r="C90" s="27"/>
@@ -3064,7 +3066,7 @@
       <c r="R90" s="27"/>
       <c r="S90" s="24"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="27"/>
       <c r="B91" s="24"/>
       <c r="C91" s="27"/>
@@ -3085,7 +3087,7 @@
       <c r="R91" s="27"/>
       <c r="S91" s="24"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19">
       <c r="A92" s="27"/>
       <c r="B92" s="24"/>
       <c r="C92" s="27"/>
@@ -3106,7 +3108,7 @@
       <c r="R92" s="27"/>
       <c r="S92" s="24"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19">
       <c r="A93" s="27"/>
       <c r="B93" s="24"/>
       <c r="C93" s="27"/>
@@ -3127,7 +3129,7 @@
       <c r="R93" s="27"/>
       <c r="S93" s="24"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="27"/>
       <c r="B94" s="24"/>
       <c r="C94" s="27"/>
@@ -3148,7 +3150,7 @@
       <c r="R94" s="27"/>
       <c r="S94" s="24"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="27"/>
       <c r="B95" s="24"/>
       <c r="C95" s="27"/>
@@ -3169,7 +3171,7 @@
       <c r="R95" s="27"/>
       <c r="S95" s="24"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="27"/>
       <c r="B96" s="24"/>
       <c r="C96" s="27"/>
@@ -3190,7 +3192,7 @@
       <c r="R96" s="27"/>
       <c r="S96" s="24"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="27"/>
       <c r="B97" s="24"/>
       <c r="C97" s="27"/>
@@ -3211,7 +3213,7 @@
       <c r="R97" s="27"/>
       <c r="S97" s="24"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="27"/>
       <c r="B98" s="24"/>
       <c r="C98" s="27"/>
@@ -3232,7 +3234,7 @@
       <c r="R98" s="27"/>
       <c r="S98" s="24"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="27"/>
       <c r="B99" s="24"/>
       <c r="C99" s="27"/>
@@ -3253,7 +3255,7 @@
       <c r="R99" s="27"/>
       <c r="S99" s="24"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="27"/>
       <c r="B100" s="24"/>
       <c r="C100" s="27"/>
@@ -3274,7 +3276,7 @@
       <c r="R100" s="27"/>
       <c r="S100" s="24"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="27"/>
       <c r="B101" s="24"/>
       <c r="C101" s="27"/>
@@ -3295,7 +3297,7 @@
       <c r="R101" s="27"/>
       <c r="S101" s="24"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="27"/>
       <c r="B102" s="24"/>
       <c r="C102" s="27"/>
@@ -3316,7 +3318,7 @@
       <c r="R102" s="27"/>
       <c r="S102" s="24"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="27"/>
       <c r="B103" s="24"/>
       <c r="C103" s="27"/>
@@ -3337,7 +3339,7 @@
       <c r="R103" s="27"/>
       <c r="S103" s="24"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="27"/>
       <c r="B104" s="24"/>
       <c r="C104" s="27"/>
@@ -3358,7 +3360,7 @@
       <c r="R104" s="27"/>
       <c r="S104" s="24"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="27"/>
       <c r="B105" s="24"/>
       <c r="C105" s="27"/>
@@ -3379,7 +3381,7 @@
       <c r="R105" s="27"/>
       <c r="S105" s="24"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="27"/>
       <c r="B106" s="24"/>
       <c r="C106" s="27"/>
@@ -3400,7 +3402,7 @@
       <c r="R106" s="27"/>
       <c r="S106" s="24"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="27"/>
       <c r="B107" s="24"/>
       <c r="C107" s="27"/>
@@ -3421,7 +3423,7 @@
       <c r="R107" s="27"/>
       <c r="S107" s="24"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="27"/>
       <c r="B108" s="24"/>
       <c r="C108" s="27"/>
@@ -3442,7 +3444,7 @@
       <c r="R108" s="27"/>
       <c r="S108" s="24"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="27"/>
       <c r="B109" s="24"/>
       <c r="C109" s="27"/>
@@ -3463,7 +3465,7 @@
       <c r="R109" s="27"/>
       <c r="S109" s="24"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="27"/>
       <c r="B110" s="24"/>
       <c r="C110" s="27"/>
@@ -3484,7 +3486,7 @@
       <c r="R110" s="27"/>
       <c r="S110" s="24"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="27"/>
       <c r="B111" s="24"/>
       <c r="C111" s="27"/>
@@ -3505,7 +3507,7 @@
       <c r="R111" s="27"/>
       <c r="S111" s="24"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="27"/>
       <c r="B112" s="24"/>
       <c r="C112" s="27"/>
@@ -3526,7 +3528,7 @@
       <c r="R112" s="27"/>
       <c r="S112" s="24"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="27"/>
       <c r="B113" s="24"/>
       <c r="C113" s="27"/>
@@ -3547,7 +3549,7 @@
       <c r="R113" s="27"/>
       <c r="S113" s="24"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="27"/>
       <c r="B114" s="24"/>
       <c r="C114" s="27"/>
@@ -3568,7 +3570,7 @@
       <c r="R114" s="27"/>
       <c r="S114" s="24"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="27"/>
       <c r="B115" s="24"/>
       <c r="C115" s="27"/>
@@ -3589,7 +3591,7 @@
       <c r="R115" s="27"/>
       <c r="S115" s="24"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="27"/>
       <c r="B116" s="24"/>
       <c r="C116" s="27"/>
@@ -3610,7 +3612,7 @@
       <c r="R116" s="27"/>
       <c r="S116" s="24"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="27"/>
       <c r="B117" s="24"/>
       <c r="C117" s="27"/>
@@ -3631,7 +3633,7 @@
       <c r="R117" s="27"/>
       <c r="S117" s="24"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="27"/>
       <c r="B118" s="24"/>
       <c r="C118" s="27"/>
@@ -3652,7 +3654,7 @@
       <c r="R118" s="27"/>
       <c r="S118" s="24"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="27"/>
       <c r="B119" s="24"/>
       <c r="C119" s="27"/>
@@ -3673,7 +3675,7 @@
       <c r="R119" s="27"/>
       <c r="S119" s="24"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="27"/>
       <c r="B120" s="24"/>
       <c r="C120" s="27"/>
@@ -3694,7 +3696,7 @@
       <c r="R120" s="27"/>
       <c r="S120" s="24"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="27"/>
       <c r="B121" s="24"/>
       <c r="C121" s="27"/>
@@ -3715,7 +3717,7 @@
       <c r="R121" s="27"/>
       <c r="S121" s="24"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="27"/>
       <c r="B122" s="24"/>
       <c r="C122" s="27"/>
@@ -3736,7 +3738,7 @@
       <c r="R122" s="27"/>
       <c r="S122" s="24"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="27"/>
       <c r="B123" s="24"/>
       <c r="C123" s="27"/>
@@ -3757,7 +3759,7 @@
       <c r="R123" s="27"/>
       <c r="S123" s="24"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="27"/>
       <c r="B124" s="24"/>
       <c r="C124" s="27"/>
@@ -3778,7 +3780,7 @@
       <c r="R124" s="27"/>
       <c r="S124" s="24"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="27"/>
       <c r="B125" s="24"/>
       <c r="C125" s="27"/>
@@ -3799,7 +3801,7 @@
       <c r="R125" s="27"/>
       <c r="S125" s="24"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="27"/>
       <c r="B126" s="24"/>
       <c r="C126" s="27"/>
@@ -3820,7 +3822,7 @@
       <c r="R126" s="27"/>
       <c r="S126" s="24"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="27"/>
       <c r="B127" s="24"/>
       <c r="C127" s="27"/>
@@ -3841,7 +3843,7 @@
       <c r="R127" s="27"/>
       <c r="S127" s="24"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="27"/>
       <c r="B128" s="24"/>
       <c r="C128" s="27"/>
@@ -3862,7 +3864,7 @@
       <c r="R128" s="27"/>
       <c r="S128" s="24"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="27"/>
       <c r="B129" s="24"/>
       <c r="C129" s="27"/>
@@ -3883,7 +3885,7 @@
       <c r="R129" s="27"/>
       <c r="S129" s="24"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="27"/>
       <c r="B130" s="24"/>
       <c r="C130" s="27"/>
@@ -3904,7 +3906,7 @@
       <c r="R130" s="27"/>
       <c r="S130" s="24"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="27"/>
       <c r="B131" s="24"/>
       <c r="C131" s="27"/>
@@ -3925,7 +3927,7 @@
       <c r="R131" s="27"/>
       <c r="S131" s="24"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="27"/>
       <c r="B132" s="24"/>
       <c r="C132" s="27"/>
@@ -3946,7 +3948,7 @@
       <c r="R132" s="27"/>
       <c r="S132" s="24"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="27"/>
       <c r="B133" s="24"/>
       <c r="C133" s="27"/>
@@ -3967,7 +3969,7 @@
       <c r="R133" s="27"/>
       <c r="S133" s="24"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="27"/>
       <c r="B134" s="24"/>
       <c r="C134" s="27"/>
@@ -3988,7 +3990,7 @@
       <c r="R134" s="27"/>
       <c r="S134" s="24"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="27"/>
       <c r="B135" s="24"/>
       <c r="C135" s="27"/>
@@ -4009,7 +4011,7 @@
       <c r="R135" s="27"/>
       <c r="S135" s="24"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="27"/>
       <c r="B136" s="24"/>
       <c r="C136" s="27"/>
@@ -4030,7 +4032,7 @@
       <c r="R136" s="27"/>
       <c r="S136" s="24"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="27"/>
       <c r="B137" s="24"/>
       <c r="C137" s="27"/>
@@ -4051,7 +4053,7 @@
       <c r="R137" s="27"/>
       <c r="S137" s="24"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="27"/>
       <c r="B138" s="24"/>
       <c r="C138" s="27"/>
@@ -4072,7 +4074,7 @@
       <c r="R138" s="27"/>
       <c r="S138" s="24"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="27"/>
       <c r="B139" s="24"/>
       <c r="C139" s="27"/>
@@ -4093,7 +4095,7 @@
       <c r="R139" s="27"/>
       <c r="S139" s="24"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="27"/>
       <c r="B140" s="24"/>
       <c r="C140" s="27"/>
@@ -4114,7 +4116,7 @@
       <c r="R140" s="27"/>
       <c r="S140" s="24"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="27"/>
       <c r="B141" s="24"/>
       <c r="C141" s="27"/>
@@ -4135,7 +4137,7 @@
       <c r="R141" s="27"/>
       <c r="S141" s="24"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="27"/>
       <c r="B142" s="24"/>
       <c r="C142" s="27"/>
@@ -4156,7 +4158,7 @@
       <c r="R142" s="27"/>
       <c r="S142" s="24"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="27"/>
       <c r="B143" s="24"/>
       <c r="C143" s="27"/>
@@ -4177,7 +4179,7 @@
       <c r="R143" s="27"/>
       <c r="S143" s="24"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="27"/>
       <c r="B144" s="24"/>
       <c r="C144" s="27"/>
@@ -4198,7 +4200,7 @@
       <c r="R144" s="27"/>
       <c r="S144" s="24"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="27"/>
       <c r="B145" s="24"/>
       <c r="C145" s="27"/>
@@ -4219,7 +4221,7 @@
       <c r="R145" s="27"/>
       <c r="S145" s="24"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="27"/>
       <c r="B146" s="24"/>
       <c r="C146" s="27"/>
@@ -4240,7 +4242,7 @@
       <c r="R146" s="27"/>
       <c r="S146" s="24"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="27"/>
       <c r="B147" s="24"/>
       <c r="C147" s="27"/>
@@ -4261,7 +4263,7 @@
       <c r="R147" s="27"/>
       <c r="S147" s="24"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="27"/>
       <c r="B148" s="24"/>
       <c r="C148" s="27"/>
@@ -4282,7 +4284,7 @@
       <c r="R148" s="27"/>
       <c r="S148" s="24"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="27"/>
       <c r="B149" s="24"/>
       <c r="C149" s="27"/>
@@ -4303,7 +4305,7 @@
       <c r="R149" s="27"/>
       <c r="S149" s="24"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="27"/>
       <c r="B150" s="24"/>
       <c r="C150" s="27"/>
@@ -4324,7 +4326,7 @@
       <c r="R150" s="27"/>
       <c r="S150" s="24"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="27"/>
       <c r="B151" s="24"/>
       <c r="C151" s="27"/>
@@ -4345,7 +4347,7 @@
       <c r="R151" s="27"/>
       <c r="S151" s="24"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="27"/>
       <c r="B152" s="24"/>
       <c r="C152" s="27"/>
@@ -4366,7 +4368,7 @@
       <c r="R152" s="27"/>
       <c r="S152" s="24"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="27"/>
       <c r="B153" s="24"/>
       <c r="C153" s="27"/>
@@ -4387,7 +4389,7 @@
       <c r="R153" s="27"/>
       <c r="S153" s="24"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="27"/>
       <c r="B154" s="24"/>
       <c r="C154" s="27"/>
@@ -4408,7 +4410,7 @@
       <c r="R154" s="27"/>
       <c r="S154" s="24"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="27"/>
       <c r="B155" s="24"/>
       <c r="C155" s="27"/>
@@ -4429,7 +4431,7 @@
       <c r="R155" s="27"/>
       <c r="S155" s="24"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="27"/>
       <c r="B156" s="24"/>
       <c r="C156" s="27"/>
@@ -4450,7 +4452,7 @@
       <c r="R156" s="27"/>
       <c r="S156" s="24"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="27"/>
       <c r="B157" s="24"/>
       <c r="C157" s="27"/>
@@ -4471,7 +4473,7 @@
       <c r="R157" s="27"/>
       <c r="S157" s="24"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="27"/>
       <c r="B158" s="24"/>
       <c r="C158" s="27"/>
@@ -4489,7 +4491,7 @@
       <c r="O158" s="24"/>
       <c r="S158" s="24"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="27"/>
       <c r="B159" s="24"/>
       <c r="C159" s="27"/>
@@ -4507,7 +4509,7 @@
       <c r="O159" s="24"/>
       <c r="S159" s="24"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="27"/>
       <c r="B160" s="24"/>
       <c r="C160" s="27"/>
@@ -4525,7 +4527,7 @@
       <c r="O160" s="24"/>
       <c r="S160" s="24"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="27"/>
       <c r="B161" s="24"/>
       <c r="C161" s="27"/>
@@ -4543,7 +4545,7 @@
       <c r="O161" s="24"/>
       <c r="S161" s="24"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="27"/>
       <c r="B162" s="24"/>
       <c r="C162" s="27"/>
@@ -4561,7 +4563,7 @@
       <c r="O162" s="24"/>
       <c r="S162" s="24"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="27"/>
       <c r="B163" s="24"/>
       <c r="C163" s="27"/>
@@ -4579,7 +4581,7 @@
       <c r="O163" s="24"/>
       <c r="S163" s="24"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="27"/>
       <c r="B164" s="24"/>
       <c r="C164" s="27"/>
@@ -4597,7 +4599,7 @@
       <c r="O164" s="24"/>
       <c r="S164" s="24"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="27"/>
       <c r="B165" s="24"/>
       <c r="C165" s="27"/>
@@ -4615,7 +4617,7 @@
       <c r="O165" s="24"/>
       <c r="S165" s="24"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="27"/>
       <c r="B166" s="24"/>
       <c r="C166" s="27"/>
@@ -4633,7 +4635,7 @@
       <c r="O166" s="24"/>
       <c r="S166" s="24"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="27"/>
       <c r="B167" s="24"/>
       <c r="C167" s="27"/>
@@ -4651,7 +4653,7 @@
       <c r="O167" s="24"/>
       <c r="S167" s="24"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="27"/>
       <c r="B168" s="24"/>
       <c r="C168" s="27"/>
@@ -4669,7 +4671,7 @@
       <c r="O168" s="24"/>
       <c r="S168" s="24"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="27"/>
       <c r="B169" s="24"/>
       <c r="C169" s="27"/>
@@ -4687,7 +4689,7 @@
       <c r="O169" s="24"/>
       <c r="S169" s="24"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="27"/>
       <c r="B170" s="24"/>
       <c r="C170" s="27"/>
@@ -4705,7 +4707,7 @@
       <c r="O170" s="24"/>
       <c r="S170" s="24"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="27"/>
       <c r="B171" s="24"/>
       <c r="C171" s="27"/>
@@ -4723,7 +4725,7 @@
       <c r="O171" s="24"/>
       <c r="S171" s="24"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="27"/>
       <c r="B172" s="24"/>
       <c r="C172" s="27"/>
@@ -4741,7 +4743,7 @@
       <c r="O172" s="24"/>
       <c r="S172" s="24"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="27"/>
       <c r="B173" s="24"/>
       <c r="C173" s="27"/>
@@ -4759,7 +4761,7 @@
       <c r="O173" s="24"/>
       <c r="S173" s="24"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="27"/>
       <c r="B174" s="24"/>
       <c r="C174" s="27"/>
@@ -4777,7 +4779,7 @@
       <c r="O174" s="24"/>
       <c r="S174" s="24"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="27"/>
       <c r="B175" s="24"/>
       <c r="C175" s="27"/>
@@ -4795,7 +4797,7 @@
       <c r="O175" s="24"/>
       <c r="S175" s="24"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="27"/>
       <c r="B176" s="24"/>
       <c r="C176" s="27"/>
@@ -4813,7 +4815,7 @@
       <c r="O176" s="24"/>
       <c r="S176" s="24"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="27"/>
       <c r="B177" s="24"/>
       <c r="C177" s="27"/>
@@ -4831,7 +4833,7 @@
       <c r="O177" s="24"/>
       <c r="S177" s="24"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="27"/>
       <c r="B178" s="24"/>
       <c r="C178" s="27"/>
@@ -4849,7 +4851,7 @@
       <c r="O178" s="24"/>
       <c r="S178" s="24"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="27"/>
       <c r="B179" s="24"/>
       <c r="C179" s="27"/>
@@ -4867,7 +4869,7 @@
       <c r="O179" s="24"/>
       <c r="S179" s="24"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="27"/>
       <c r="B180" s="24"/>
       <c r="C180" s="27"/>
@@ -4885,7 +4887,7 @@
       <c r="O180" s="24"/>
       <c r="S180" s="24"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="27"/>
       <c r="B181" s="24"/>
       <c r="C181" s="27"/>
@@ -4903,7 +4905,7 @@
       <c r="O181" s="24"/>
       <c r="S181" s="24"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="27"/>
       <c r="B182" s="24"/>
       <c r="C182" s="27"/>
@@ -4921,7 +4923,7 @@
       <c r="O182" s="24"/>
       <c r="S182" s="24"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="27"/>
       <c r="B183" s="24"/>
       <c r="C183" s="27"/>
@@ -4939,7 +4941,7 @@
       <c r="O183" s="24"/>
       <c r="S183" s="24"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="27"/>
       <c r="B184" s="24"/>
       <c r="C184" s="27"/>
@@ -4957,7 +4959,7 @@
       <c r="O184" s="24"/>
       <c r="S184" s="24"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="27"/>
       <c r="B185" s="24"/>
       <c r="C185" s="27"/>
@@ -4975,7 +4977,7 @@
       <c r="O185" s="24"/>
       <c r="S185" s="24"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="27"/>
       <c r="B186" s="24"/>
       <c r="C186" s="27"/>
@@ -4993,38 +4995,38 @@
       <c r="O186" s="24"/>
       <c r="S186" s="24"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="27"/>
       <c r="M187" s="27"/>
       <c r="N187" s="28"/>
       <c r="O187" s="24"/>
       <c r="S187" s="24"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="27"/>
       <c r="M188" s="27"/>
       <c r="N188" s="28"/>
       <c r="O188" s="24"/>
       <c r="S188" s="24"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="27"/>
       <c r="N189" s="28"/>
       <c r="O189" s="24"/>
       <c r="S189" s="24"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="27"/>
       <c r="N190" s="28"/>
       <c r="O190" s="24"/>
       <c r="S190" s="24"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="27"/>
       <c r="O191" s="24"/>
       <c r="S191" s="24"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="27"/>
       <c r="O192" s="24"/>
       <c r="S192" s="24"/>
@@ -5038,14 +5040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -5056,7 +5058,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -5082,7 +5084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5092,7 +5094,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5102,7 +5104,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5112,7 +5114,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5122,7 +5124,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5132,7 +5134,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5142,7 +5144,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5152,7 +5154,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5162,7 +5164,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5172,7 +5174,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5182,7 +5184,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5192,7 +5194,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5202,7 +5204,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5212,7 +5214,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5222,7 +5224,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5232,7 +5234,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5242,7 +5244,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5252,7 +5254,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -5274,14 +5276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="54" customWidth="1"/>
@@ -6117,7 +6119,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="57" t="s">
         <v>31</v>
       </c>
@@ -6134,7 +6136,7 @@
       <c r="L1" s="57"/>
       <c r="M1" s="58"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="59"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -6149,7 +6151,7 @@
       <c r="L2" s="59"/>
       <c r="M2" s="60"/>
     </row>
-    <row r="3" spans="1:13" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A3" s="42" t="s">
         <v>32</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="49" customFormat="1" ht="16.5">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -6205,7 +6207,7 @@
       <c r="L4" s="47"/>
       <c r="M4" s="47"/>
     </row>
-    <row r="5" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="49" customFormat="1" ht="16.5">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -6220,7 +6222,7 @@
       <c r="L5" s="47"/>
       <c r="M5" s="47"/>
     </row>
-    <row r="6" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="49" customFormat="1" ht="16.5">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -6235,7 +6237,7 @@
       <c r="L6" s="46"/>
       <c r="M6" s="47"/>
     </row>
-    <row r="7" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="49" customFormat="1" ht="16.5">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -6250,7 +6252,7 @@
       <c r="L7" s="46"/>
       <c r="M7" s="47"/>
     </row>
-    <row r="8" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="49" customFormat="1" ht="16.5">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -6265,7 +6267,7 @@
       <c r="L8" s="46"/>
       <c r="M8" s="47"/>
     </row>
-    <row r="9" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="49" customFormat="1" ht="16.5">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -6280,7 +6282,7 @@
       <c r="L9" s="46"/>
       <c r="M9" s="47"/>
     </row>
-    <row r="10" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="49" customFormat="1" ht="16.5">
       <c r="A10" s="46"/>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
@@ -6295,7 +6297,7 @@
       <c r="L10" s="50"/>
       <c r="M10" s="50"/>
     </row>
-    <row r="11" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="49" customFormat="1" ht="16.5">
       <c r="A11" s="46"/>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
@@ -6310,7 +6312,7 @@
       <c r="L11" s="50"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="1:13" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="45" customFormat="1" ht="16.5">
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
